--- a/Records/训练记录 V0.5.xlsx
+++ b/Records/训练记录 V0.5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YueBoBo/Documents/GitHub/Workoutrecords_and_Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YueBoBo/Documents/GitHub/Workoutrecords_and_Analysis/Records/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F29F216F-22A3-B245-89AF-DEA28F5D21A6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420B284A-E1A6-5546-BCC2-F80F16B619A0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2420" yWindow="880" windowWidth="28500" windowHeight="18120" xr2:uid="{12580A8A-46E1-254A-A474-AB8864810DA8}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="70">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -269,6 +269,42 @@
   </si>
   <si>
     <t>不准确需确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高脚杯上斜卧推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑轮肩侧平举+杠铃片超级组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三头横杠下拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二头横杠弯举</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背部划船</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>划船机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,7 +467,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -474,58 +510,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -842,32 +881,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F186A00-D284-2141-82DE-3261A53D23F8}">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="162" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" customWidth="1"/>
     <col min="7" max="7" width="6.6640625" customWidth="1"/>
     <col min="10" max="10" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="8" t="s">
@@ -899,10 +938,10 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="27">
+      <c r="A3" s="19">
         <v>43433</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="24" t="s">
         <v>36</v>
       </c>
       <c r="C3">
@@ -918,12 +957,12 @@
         <f>C3*D3*E3</f>
         <v>175</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="20" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="B4" s="22"/>
+      <c r="B4" s="24"/>
       <c r="C4">
         <v>6.25</v>
       </c>
@@ -937,12 +976,12 @@
         <f t="shared" ref="F4:F17" si="0">C4*D4*E4</f>
         <v>187.5</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="22" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="24" t="s">
         <v>39</v>
       </c>
       <c r="C5">
@@ -960,7 +999,7 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="22"/>
+      <c r="B6" s="24"/>
       <c r="C6">
         <v>30</v>
       </c>
@@ -994,7 +1033,7 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="24" t="s">
         <v>43</v>
       </c>
       <c r="C8">
@@ -1012,7 +1051,7 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="B9" s="22"/>
+      <c r="B9" s="24"/>
       <c r="C9">
         <v>30</v>
       </c>
@@ -1067,7 +1106,7 @@
       <c r="B12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="22">
         <v>16</v>
       </c>
       <c r="D12">
@@ -1085,7 +1124,7 @@
       <c r="B13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="22">
         <v>16</v>
       </c>
       <c r="D13">
@@ -1103,7 +1142,7 @@
       <c r="B14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="22">
         <v>13</v>
       </c>
       <c r="D14">
@@ -1121,7 +1160,7 @@
       <c r="B15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="21">
         <v>10</v>
       </c>
       <c r="D15">
@@ -1139,7 +1178,7 @@
       <c r="B16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="21">
         <v>9</v>
       </c>
       <c r="D16">
@@ -1153,11 +1192,11 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="1:10">
       <c r="B17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="21">
         <v>40</v>
       </c>
       <c r="D17">
@@ -1171,7 +1210,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="1:10">
       <c r="B18" s="1" t="s">
         <v>55</v>
       </c>
@@ -1182,107 +1221,330 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="1:10">
       <c r="B19" s="1"/>
       <c r="E19">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="1:10">
       <c r="B20" s="1"/>
       <c r="E20">
         <v>10</v>
       </c>
-      <c r="I20" s="28" t="s">
+      <c r="I20" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="J20" s="28">
+      <c r="J20" s="20">
         <f>SUM(F3:F17)</f>
         <v>6238.5</v>
       </c>
     </row>
-    <row r="21" spans="2:10">
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="2:10">
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="2:10">
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="2:10">
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="2:10">
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="2:10">
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="2:10">
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="2:2">
+    <row r="21" spans="1:10">
+      <c r="A21" s="19">
+        <v>43444</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="B22" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22">
+        <v>60</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ref="F22:F35" si="1">C22*D22*E22</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="B23" s="24"/>
+      <c r="C23">
+        <v>70</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="B24" s="24"/>
+      <c r="C24">
+        <v>60</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="B25" s="24"/>
+      <c r="C25">
+        <v>40</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>7</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="B26" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26">
+        <v>50</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>7</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="B27" s="24"/>
+      <c r="C27">
+        <v>40</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="B28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>40</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="B29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29">
+        <v>20</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>7</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="B30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30">
+        <v>13.75</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>7</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>481.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="B31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31">
+        <v>16.75</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>301.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="B32" s="17"/>
+      <c r="C32">
+        <v>18.75</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33">
+        <v>18.75</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>7</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>393.75</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34">
+        <v>18.75</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>281.25</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35">
+        <v>23</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>7</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>483</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
       <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="2:2">
+      <c r="E37" t="s">
+        <v>69</v>
+      </c>
+      <c r="I37" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J37" s="20">
+        <f>SUM(F22:F35)</f>
+        <v>5804.5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="2:10">
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:10">
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:10">
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="2:10">
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="2:10">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:10">
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="2:10">
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="2:10">
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="2:10">
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="2:10">
       <c r="B48" s="1"/>
     </row>
     <row r="49" spans="2:2">
@@ -1306,12 +1568,17 @@
     <row r="55" spans="2:2">
       <c r="B55" s="1"/>
     </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="B26:B27"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B22:B25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1364,7 +1631,7 @@
       <c r="A2" s="5">
         <v>43384</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="29" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="8">
@@ -1376,7 +1643,7 @@
       <c r="E2" s="7">
         <v>3</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="31" t="s">
         <v>24</v>
       </c>
       <c r="H2" s="10" t="s">
@@ -1387,7 +1654,7 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="B3" s="16"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="8">
         <v>40</v>
       </c>
@@ -1397,7 +1664,7 @@
       <c r="E3" s="7">
         <v>7</v>
       </c>
-      <c r="F3" s="14"/>
+      <c r="F3" s="31"/>
       <c r="H3" s="13" t="s">
         <v>33</v>
       </c>
@@ -1409,7 +1676,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="B4" s="17"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="8">
         <v>30</v>
       </c>
@@ -1419,13 +1686,13 @@
       <c r="E4" s="7">
         <v>5</v>
       </c>
-      <c r="F4" s="14"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:10">
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="29" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="9">
@@ -1437,12 +1704,12 @@
       <c r="E6" s="7">
         <v>7.5</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="31" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="B7" s="17"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="8">
         <v>32</v>
       </c>
@@ -1452,13 +1719,13 @@
       <c r="E7" s="7">
         <v>6</v>
       </c>
-      <c r="F7" s="14"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="1:10">
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="29" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="8">
@@ -1470,12 +1737,12 @@
       <c r="E9" s="7">
         <v>5</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="31" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="B10" s="17"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="8">
         <v>13.75</v>
       </c>
@@ -1485,13 +1752,13 @@
       <c r="E10" s="7">
         <v>6</v>
       </c>
-      <c r="F10" s="14"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="1:10">
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="25" customHeight="1">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="8">
@@ -1503,12 +1770,12 @@
       <c r="E12" s="7">
         <v>5</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="31" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1">
-      <c r="B13" s="17"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="8">
         <v>6.75</v>
       </c>
@@ -1518,13 +1785,13 @@
       <c r="E13" s="7">
         <v>7</v>
       </c>
-      <c r="F13" s="14"/>
+      <c r="F13" s="31"/>
     </row>
     <row r="14" spans="1:10">
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:10" ht="22" customHeight="1">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="29" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -1536,12 +1803,12 @@
       <c r="E15" s="7">
         <v>3</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="31" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="22" customHeight="1">
-      <c r="B16" s="17"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="8">
         <v>20</v>
       </c>
@@ -1551,13 +1818,13 @@
       <c r="E16" s="7">
         <v>6</v>
       </c>
-      <c r="F16" s="14"/>
+      <c r="F16" s="31"/>
     </row>
     <row r="17" spans="1:8">
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:8" ht="33" customHeight="1">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="29" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -1569,12 +1836,12 @@
       <c r="E18" s="7">
         <v>3</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="31" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="33" customHeight="1">
-      <c r="B19" s="17"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="8">
         <v>20</v>
       </c>
@@ -1584,7 +1851,7 @@
       <c r="E19" s="7">
         <v>8</v>
       </c>
-      <c r="F19" s="14"/>
+      <c r="F19" s="31"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="6" t="s">
@@ -1616,7 +1883,7 @@
       <c r="A24" s="5">
         <v>43384</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="25" t="s">
         <v>36</v>
       </c>
       <c r="C24" s="8">
@@ -1633,12 +1900,12 @@
         <f>C24*D24*E24</f>
         <v>175</v>
       </c>
-      <c r="H24" s="18" t="s">
+      <c r="H24" s="25" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="B25" s="18"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="8">
         <v>6.25</v>
       </c>
@@ -1653,22 +1920,22 @@
         <f>C25*D25*E25</f>
         <v>187.5</v>
       </c>
-      <c r="H25" s="24"/>
+      <c r="H25" s="26"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
       <c r="G26" s="8">
         <f>G24+G25</f>
         <v>362.5</v>
       </c>
-      <c r="H26" s="23"/>
+      <c r="H26" s="18"/>
     </row>
     <row r="27" spans="1:8" ht="20" customHeight="1">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="29" t="s">
         <v>39</v>
       </c>
       <c r="C27" s="9">
@@ -1685,12 +1952,12 @@
         <f>C27*D27*E27</f>
         <v>400</v>
       </c>
-      <c r="H27" s="25" t="s">
+      <c r="H27" s="27" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="16" customHeight="1">
-      <c r="B28" s="17"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="8">
         <v>30</v>
       </c>
@@ -1705,7 +1972,7 @@
         <f>C28*D28*E28</f>
         <v>600</v>
       </c>
-      <c r="H28" s="26"/>
+      <c r="H28" s="28"/>
     </row>
     <row r="29" spans="1:8">
       <c r="G29" s="8">
@@ -1718,42 +1985,42 @@
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="29">
         <v>40</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="29">
         <v>7</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="29">
         <v>3</v>
       </c>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15">
+      <c r="F31" s="29"/>
+      <c r="G31" s="29">
         <f>C31*D31*E31</f>
         <v>840</v>
       </c>
-      <c r="H31" s="14" t="s">
+      <c r="H31" s="31" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="14"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="31"/>
     </row>
     <row r="33" spans="2:8">
       <c r="F33" s="1"/>
       <c r="H33" s="4"/>
     </row>
     <row r="34" spans="2:8">
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="29" t="s">
         <v>43</v>
       </c>
       <c r="C34" s="8">
@@ -1765,12 +2032,12 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="8"/>
-      <c r="H34" s="14" t="s">
+      <c r="H34" s="31" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="35" spans="2:8">
-      <c r="B35" s="17"/>
+      <c r="B35" s="30"/>
       <c r="C35" s="8">
         <v>6.75</v>
       </c>
@@ -1780,14 +2047,14 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="14"/>
+      <c r="H35" s="31"/>
     </row>
     <row r="36" spans="2:8">
       <c r="F36" s="1"/>
       <c r="H36" s="3"/>
     </row>
     <row r="37" spans="2:8">
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="29" t="s">
         <v>19</v>
       </c>
       <c r="C37" s="9" t="s">
@@ -1799,12 +2066,12 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="8"/>
-      <c r="H37" s="14" t="s">
+      <c r="H37" s="31" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="38" spans="2:8">
-      <c r="B38" s="17"/>
+      <c r="B38" s="30"/>
       <c r="C38" s="8">
         <v>20</v>
       </c>
@@ -1814,14 +2081,14 @@
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="8"/>
-      <c r="H38" s="14"/>
+      <c r="H38" s="31"/>
     </row>
     <row r="39" spans="2:8">
       <c r="F39" s="1"/>
       <c r="H39" s="3"/>
     </row>
     <row r="40" spans="2:8">
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="29" t="s">
         <v>22</v>
       </c>
       <c r="C40" s="9" t="s">
@@ -1833,12 +2100,12 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="8"/>
-      <c r="H40" s="14" t="s">
+      <c r="H40" s="31" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="41" spans="2:8">
-      <c r="B41" s="17"/>
+      <c r="B41" s="30"/>
       <c r="C41" s="8">
         <v>20</v>
       </c>
@@ -1848,27 +2115,10 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="14"/>
+      <c r="H41" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B6:B7"/>
@@ -1881,6 +2131,23 @@
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="F15:F16"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="H34:H35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
